--- a/Довідники/jsexcel/exmpl/test.xlsx
+++ b/Довідники/jsexcel/exmpl/test.xlsx
@@ -1,10 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -31,14 +34,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +69,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -79,6 +82,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126952</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="219075"/>
+          <a:ext cx="1908127" cy="1637809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,11 +456,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="15" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1" outlineLevel="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -446,6 +503,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>